--- a/orders.xlsx
+++ b/orders.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>yves</t>
+          <t>{'name': 'yves', 'username': 'cestlavieq', 'chat_id': '1123838913'}</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Хочу сделать торт</t>
+          <t>ляля</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -481,15 +481,55 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>yves</t>
+          <t>{'name': 'yves', 'username': 'cestlavieq', 'chat_id': '1123838913'}</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Хочу починить телефон!</t>
+          <t>ляля</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
+        <is>
+          <t>Новый</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>{'name': 'yves', 'username': 'cestlavieq', 'chat_id': '1123838913'}</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ляля</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Новый</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>{'name': 'yves', 'username': 'cestlavieq', 'chat_id': '1123838913'}</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ляля</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>Новый</t>
         </is>

--- a/orders.xlsx
+++ b/orders.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,17 +16,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +36,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +44,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,24 +425,34 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>client</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>status</t>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Имя</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Username</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Статус</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Дата</t>
         </is>
       </c>
     </row>
@@ -461,18 +462,26 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>{'name': 'yves', 'username': 'cestlavieq', 'chat_id': '1123838913'}</t>
+          <t>yves</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ляля</t>
+          <t>cestlavieq</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>ганг</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Новый</t>
         </is>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>46034.51427338034</v>
       </c>
     </row>
     <row r="3">
@@ -481,58 +490,26 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>{'name': 'yves', 'username': 'cestlavieq', 'chat_id': '1123838913'}</t>
+          <t>yves</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ляля</t>
+          <t>cestlavieq</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Новый</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>{'name': 'yves', 'username': 'cestlavieq', 'chat_id': '1123838913'}</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>ляля</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Новый</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>{'name': 'yves', 'username': 'cestlavieq', 'chat_id': '1123838913'}</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>ляля</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Новый</t>
-        </is>
+          <t>че как ты</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>В работе</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>46034.51438416641</v>
       </c>
     </row>
   </sheetData>
